--- a/config_3.2/sys_3dby_xyxtg_config.xlsx
+++ b/config_3.2/sys_3dby_xyxtg_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duchao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="game_config" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
   <si>
     <t>line</t>
   </si>
@@ -59,85 +59,101 @@
     <t>xyxxl_config</t>
   </si>
   <si>
+    <t>permission|权限</t>
+  </si>
+  <si>
+    <t>bet_money|下注档次</t>
+  </si>
+  <si>
+    <t>xxl_bet_1</t>
+  </si>
+  <si>
+    <t>xxl_bet_2</t>
+  </si>
+  <si>
+    <t>xxl_bet_3</t>
+  </si>
+  <si>
+    <t>xxl_bet_4</t>
+  </si>
+  <si>
+    <t>xxl_bet_5</t>
+  </si>
+  <si>
+    <t>xxl_bet_6</t>
+  </si>
+  <si>
+    <t>xxl_bet_7</t>
+  </si>
+  <si>
+    <t>xxl_bet_8</t>
+  </si>
+  <si>
+    <t>xxl_bet_9</t>
+  </si>
+  <si>
+    <t>xxl_bet_10</t>
+  </si>
+  <si>
+    <t>xxl_bet_11</t>
+  </si>
+  <si>
+    <t>xxl_bet_12</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_1</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_2</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_3</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_4</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_5</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_6</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_7</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_8</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_9</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_10</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_11</t>
+  </si>
+  <si>
+    <t>sh_xxl_bet_12</t>
+  </si>
+  <si>
     <t>bet_times|下注次数</t>
-  </si>
-  <si>
-    <t>permission|权限</t>
-  </si>
-  <si>
-    <t>bet_money|下注档次</t>
-  </si>
-  <si>
-    <t>xxl_bet_1</t>
-  </si>
-  <si>
-    <t>xxl_bet_2</t>
-  </si>
-  <si>
-    <t>xxl_bet_3</t>
-  </si>
-  <si>
-    <t>xxl_bet_4</t>
-  </si>
-  <si>
-    <t>xxl_bet_5</t>
-  </si>
-  <si>
-    <t>xxl_bet_6</t>
-  </si>
-  <si>
-    <t>xxl_bet_7</t>
-  </si>
-  <si>
-    <t>xxl_bet_8</t>
-  </si>
-  <si>
-    <t>xxl_bet_9</t>
-  </si>
-  <si>
-    <t>xxl_bet_10</t>
-  </si>
-  <si>
-    <t>xxl_bet_11</t>
-  </si>
-  <si>
-    <t>xxl_bet_12</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_1</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_2</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_3</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_4</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_5</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_6</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_7</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_8</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_9</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_10</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_11</t>
-  </si>
-  <si>
-    <t>sh_xxl_bet_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_2</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_3</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_4</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_5</t>
+  </si>
+  <si>
+    <t>xyxtg_bet_limit_1</t>
   </si>
 </sst>
 </file>
@@ -273,7 +289,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,7 +324,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -990,14 +1006,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.875" customWidth="1"/>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -1005,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1030,7 +1046,9 @@
       <c r="B2" s="3">
         <v>10</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1049,7 +1067,9 @@
       <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1068,7 +1088,9 @@
       <c r="B4" s="3">
         <v>30</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -1087,7 +1109,9 @@
       <c r="B5" s="3">
         <v>50</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1106,7 +1130,9 @@
       <c r="B6" s="3">
         <v>100</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -1549,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1575,7 +1601,7 @@
         <v>5000</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1598,7 +1624,7 @@
         <v>10000</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1621,7 +1647,7 @@
         <v>30000</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1644,7 +1670,7 @@
         <v>60000</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1667,7 +1693,7 @@
         <v>120000</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1690,7 +1716,7 @@
         <v>240000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1713,7 +1739,7 @@
         <v>480000</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1736,7 +1762,7 @@
         <v>960000</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1759,7 +1785,7 @@
         <v>1920000</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1782,7 +1808,7 @@
         <v>5120000</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1805,7 +1831,7 @@
         <v>10240000</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1828,7 +1854,7 @@
         <v>20480000</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2123,10 +2149,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2150,7 +2176,7 @@
         <v>5000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2174,7 +2200,7 @@
         <v>10000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2198,7 +2224,7 @@
         <v>30000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2222,7 +2248,7 @@
         <v>60000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2246,7 +2272,7 @@
         <v>120000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2270,7 +2296,7 @@
         <v>240000</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2294,7 +2320,7 @@
         <v>480000</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2318,7 +2344,7 @@
         <v>960000</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2342,7 +2368,7 @@
         <v>1920000</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2366,7 +2392,7 @@
         <v>5120000</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2390,7 +2416,7 @@
         <v>10240000</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2414,7 +2440,7 @@
         <v>20480000</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2779,10 +2805,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -2806,7 +2832,7 @@
         <v>5000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -2826,7 +2852,7 @@
         <v>10000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2846,7 +2872,7 @@
         <v>30000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -2866,7 +2892,7 @@
         <v>60000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2886,7 +2912,7 @@
         <v>120000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2906,7 +2932,7 @@
         <v>240000</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2926,7 +2952,7 @@
         <v>480000</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2946,7 +2972,7 @@
         <v>960000</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2966,7 +2992,7 @@
         <v>1920000</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2986,7 +3012,7 @@
         <v>5120000</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3006,7 +3032,7 @@
         <v>10240000</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3026,7 +3052,7 @@
         <v>20480000</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -3342,7 +3368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
@@ -3357,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -3384,7 +3410,7 @@
         <v>5000</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -3406,7 +3432,7 @@
         <v>10000</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -3428,7 +3454,7 @@
         <v>30000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -3450,7 +3476,7 @@
         <v>60000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -3472,7 +3498,7 @@
         <v>120000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -3494,7 +3520,7 @@
         <v>240000</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3516,7 +3542,7 @@
         <v>480000</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3538,7 +3564,7 @@
         <v>960000</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3560,7 +3586,7 @@
         <v>1920000</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3582,7 +3608,7 @@
         <v>5120000</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3604,7 +3630,7 @@
         <v>10240000</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3626,7 +3652,7 @@
         <v>20480000</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>

--- a/config_3.2/sys_3dby_xyxtg_config.xlsx
+++ b/config_3.2/sys_3dby_xyxtg_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20565" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="game_config" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>line</t>
   </si>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>xyxtg_bet_limit_1</t>
+  </si>
+  <si>
+    <t>prefab_name|预制体名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniGameSGXXLPrefab</t>
+  </si>
+  <si>
+    <t>MiniGameSHXXLPrefab</t>
+  </si>
+  <si>
+    <t>MiniGameCSXXLPrefab</t>
+  </si>
+  <si>
+    <t>MiniGameXYXXLPrefab</t>
   </si>
 </sst>
 </file>
@@ -535,14 +551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -555,7 +572,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -576,7 +595,9 @@
       <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -597,7 +618,9 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -618,7 +641,9 @@
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -639,7 +664,9 @@
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1006,7 +1033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/config_3.2/sys_3dby_xyxtg_config.xlsx
+++ b/config_3.2/sys_3dby_xyxtg_config.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>line</t>
   </si>
@@ -170,13 +170,53 @@
   </si>
   <si>
     <t>MiniGameXYXXLPrefab</t>
+  </si>
+  <si>
+    <t>game_name_desc|名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水浒消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财神消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_xyxxl_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西游消消乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_csxxl_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_shxxl_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxc_icon_xxl_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selet_img|名字图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +236,14 @@
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -226,7 +274,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +292,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +606,7 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,6 +614,8 @@
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -575,8 +631,12 @@
       <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -598,8 +658,12 @@
       <c r="D2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -621,8 +685,12 @@
       <c r="D3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -636,16 +704,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -659,16 +731,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -693,11 +769,6 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1025,7 +1096,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
